--- a/teachers_allocation.xlsx
+++ b/teachers_allocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olawale Ahmed\Desktop\TEACHERS ALLOCATION MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACC5286-4FE4-49B1-AD75-FCD52BCA194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9107F00-F9E7-4AE0-9C96-C4F69EC30814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{809B1BF6-1BA1-406F-974F-5E51B97AAFBF}"/>
   </bookViews>
@@ -93,10 +93,10 @@
     <t>Orhionmwon</t>
   </si>
   <si>
-    <t>total_students</t>
+    <t>Total Students</t>
   </si>
   <si>
-    <t>total_teachers</t>
+    <t>Total Teachers</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:C298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
